--- a/DATA_goal/Junction_Flooding_292.xlsx
+++ b/DATA_goal/Junction_Flooding_292.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41724.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.95</v>
+        <v>1.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>33.97</v>
+        <v>3.4</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.29</v>
+        <v>2.63</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>38.07</v>
+        <v>3.81</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.26</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>182.62</v>
+        <v>18.26</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.62</v>
+        <v>3.46</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.45</v>
+        <v>2.24</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.49</v>
+        <v>1.95</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.15</v>
+        <v>0.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>34.15</v>
+        <v>3.42</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.15</v>
+        <v>0.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41724.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>50.02</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>40.33</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>68.04000000000001</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>27.92</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>20.01</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>21.08</v>
+        <v>2.11</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>267.37</v>
+        <v>26.74</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.45</v>
+        <v>5.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.61</v>
+        <v>3.36</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.53</v>
+        <v>3.35</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.03</v>
+        <v>2.1</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>62.15</v>
+        <v>6.22</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41724.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.61</v>
+        <v>2.46</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.95</v>
+        <v>3.79</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.85</v>
+        <v>0.99</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>127.74</v>
+        <v>12.77</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.94</v>
+        <v>2.49</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.5</v>
+        <v>1.65</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.93</v>
+        <v>1.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.35</v>
+        <v>1.03</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.81</v>
+        <v>3.48</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41724.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.98</v>
+        <v>4.2</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.14</v>
+        <v>3.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.63</v>
+        <v>5.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.46</v>
+        <v>2.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>222.72</v>
+        <v>22.27</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.23</v>
+        <v>4.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.31</v>
+        <v>2.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.14</v>
+        <v>2.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.94</v>
+        <v>1.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.34</v>
+        <v>5.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41724.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>40.95</v>
+        <v>4.09</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>33.39</v>
+        <v>3.34</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>58.03</v>
+        <v>5.8</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>14.95</v>
+        <v>1.5</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>17.38</v>
+        <v>1.74</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>20.97</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.44</v>
+        <v>1.24</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>217.01</v>
+        <v>21.7</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>41.24</v>
+        <v>4.12</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>28.13</v>
+        <v>2.81</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>10.65</v>
+        <v>1.07</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>17.26</v>
+        <v>1.73</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>52.81</v>
+        <v>5.28</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41724.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J7" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>37.82</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>30.87</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>54.03</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
       <c r="K7" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>19.38</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>199.84</v>
+        <v>19.98</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>38.09</v>
+        <v>3.81</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>26.1</v>
+        <v>2.61</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>15.95</v>
+        <v>1.59</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>49.14</v>
+        <v>4.91</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41724.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>4.65</v>
+        <v>0.46</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>24.06</v>
+        <v>2.41</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>5.95</v>
+        <v>0.6</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AC8" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>69.39</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AD8" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>22.2</v>
+        <v>2.22</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41724.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.15</v>
+        <v>0.32</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M9" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>4.09</v>
-      </c>
       <c r="N9" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>45.32</v>
+        <v>4.53</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.55</v>
+        <v>0.25</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41724.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>49.74</v>
+        <v>4.97</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>40.85</v>
+        <v>4.09</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>65.06</v>
+        <v>6.51</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>19.96</v>
+        <v>2</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>21.13</v>
+        <v>2.11</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>25.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>265.07</v>
+        <v>26.51</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>49.94</v>
+        <v>4.99</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>33.71</v>
+        <v>3.37</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>17.71</v>
+        <v>1.77</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>32.43</v>
+        <v>3.24</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>20.98</v>
+        <v>2.1</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>58.97</v>
+        <v>5.9</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_292.xlsx
+++ b/DATA_goal/Junction_Flooding_292.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41724.34027777778</v>
+        <v>44973.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>1.06</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.92</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.42</v>
+        <v>3.99</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41724.34722222222</v>
+        <v>44973.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.31</v>
+        <v>1.97</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5</v>
+        <v>4.27</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.03</v>
+        <v>3.46</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.79</v>
+        <v>2.39</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.11</v>
+        <v>1.79</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>6.22</v>
+        <v>5.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41724.35416666666</v>
+        <v>44973.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.72</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.46</v>
+        <v>1.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.57</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.79</v>
+        <v>2.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.37</v>
+        <v>0.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.37</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.53</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.62</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.79</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.77</v>
+        <v>7.85</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.49</v>
+        <v>1.6</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.52</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.79</v>
+        <v>1.22</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="AB4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>0.65</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.03</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.48</v>
+        <v>2.42</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41724.36111111111</v>
+        <v>44973.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.93</v>
+        <v>1.3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.2</v>
+        <v>2.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.41</v>
+        <v>2.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.76</v>
+        <v>3.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.34</v>
+        <v>1.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.68</v>
+        <v>1.13</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.87</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.27</v>
+        <v>14.72</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.22</v>
+        <v>2.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.83</v>
+        <v>1.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.29</v>
+        <v>0.87</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.77</v>
+        <v>1.18</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.23</v>
+        <v>3.46</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41724.36805555555</v>
+        <v>44973.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.88</v>
+        <v>0.96</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.39</v>
+        <v>0.45</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.09</v>
+        <v>2.06</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.34</v>
+        <v>1.37</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.48</v>
+        <v>0.76</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.8</v>
+        <v>9.35</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.28</v>
+        <v>1.16</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.01</v>
+        <v>0.57</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.5</v>
+        <v>0.44</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.64</v>
+        <v>0.83</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.47</v>
+        <v>0.75</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.1</v>
+        <v>1.18</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.24</v>
+        <v>0.85</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>21.7</v>
+        <v>4.28</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.12</v>
+        <v>2.64</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.36</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.45</v>
+        <v>0.78</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.81</v>
+        <v>4.11</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.2</v>
+        <v>0.61</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.07</v>
+        <v>0.68</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.25</v>
+        <v>0.76</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.73</v>
+        <v>0.83</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.28</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.76</v>
+        <v>0.29</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41724.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>19.98</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41724.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41724.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41724.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>26.51</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41724.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>19.21</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>41.96</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>3.73</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_292.xlsx
+++ b/DATA_goal/Junction_Flooding_292.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44973.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>30.97</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>3.1</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.31</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>2.29</v>
+        <v>22.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.8</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.99</v>
+        <v>39.91</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44973.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.27</v>
+        <v>42.65</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.46</v>
+        <v>34.57</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.9</v>
+        <v>59.03</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.85</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.38</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.07</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.88</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.78</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>22.73</v>
+        <v>227.31</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.31</v>
+        <v>43.11</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.87</v>
+        <v>28.69</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.89</v>
+        <v>28.88</v>
       </c>
       <c r="AA3" s="4" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.26</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>5.37</v>
+        <v>53.68</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44973.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.95</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.33</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.85</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.6</v>
+        <v>15.97</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.42</v>
+        <v>24.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44973.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.17</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.29</v>
+        <v>22.89</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.84</v>
+        <v>38.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.72</v>
+        <v>147.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.83</v>
+        <v>28.33</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.82</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.46</v>
+        <v>34.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_292.xlsx
+++ b/DATA_goal/Junction_Flooding_292.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44973.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.153</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.015</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>38.83</v>
+        <v>38.832</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>30.97</v>
+        <v>30.967</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>45.02</v>
+        <v>45.024</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.17</v>
+        <v>9.170999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.75</v>
+        <v>13.751</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.28</v>
+        <v>15.281</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.89</v>
+        <v>15.885</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.59</v>
+        <v>4.586</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.9</v>
+        <v>19.896</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.29</v>
+        <v>12.285</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.42</v>
+        <v>3.423</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.238</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>210.1</v>
+        <v>210.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>39.7</v>
+        <v>39.697</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>26.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.22</v>
+        <v>13.224</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.103</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.94</v>
+        <v>22.935</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.6</v>
+        <v>10.595</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.44</v>
+        <v>12.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.8</v>
+        <v>15.796</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>39.91</v>
+        <v>39.912</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.2</v>
+        <v>7.199</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.49</v>
+        <v>16.486</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44973.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.7</v>
+        <v>19.697</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.08</v>
+        <v>14.079</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.92</v>
+        <v>1.921</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>42.65</v>
+        <v>42.654</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>34.57</v>
+        <v>34.571</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.5</v>
+        <v>15.501</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>59.03</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.85</v>
+        <v>23.851</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.38</v>
+        <v>10.375</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.31</v>
+        <v>15.309</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.07</v>
+        <v>17.069</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.88</v>
+        <v>17.881</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.95</v>
+        <v>4.952</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.78</v>
+        <v>21.776</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.2</v>
+        <v>13.199</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.57</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.172</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>227.31</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>43.11</v>
+        <v>43.115</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>28.69</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.92</v>
+        <v>14.923</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.65</v>
+        <v>2.649</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.88</v>
+        <v>28.883</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.3</v>
+        <v>11.303</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.27</v>
+        <v>13.267</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>53.68</v>
+        <v>53.681</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.9</v>
+        <v>7.898</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="4">
@@ -863,13 +863,13 @@
         <v>44973.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.21</v>
+        <v>7.206</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.95</v>
+        <v>4.948</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.01</v>
+        <v>1.013</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>15.59</v>
@@ -878,88 +878,88 @@
         <v>12.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.67</v>
+        <v>5.672</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.33</v>
+        <v>26.333</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.73</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.73</v>
+        <v>3.728</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.34</v>
+        <v>5.341</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.25</v>
+        <v>6.249</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.49</v>
+        <v>6.491</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.82</v>
+        <v>1.817</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.92</v>
+        <v>7.924</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.01</v>
+        <v>5.007</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.966</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.552</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.54000000000001</v>
+        <v>78.542</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>15.97</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.205</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.47</v>
+        <v>10.468</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.38</v>
+        <v>5.379</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.16</v>
+        <v>1.164</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.221</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.23</v>
+        <v>4.235</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.95</v>
+        <v>4.953</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.47</v>
+        <v>6.472</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.18</v>
+        <v>24.181</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.81</v>
+        <v>2.805</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.51</v>
+        <v>6.509</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44973.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_292.xlsx
+++ b/DATA_goal/Junction_Flooding_292.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         <v>44973.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.97</v>
+        <v>12.971</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>9.4</v>
@@ -976,94 +976,198 @@
         <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.17</v>
+        <v>28.169</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.89</v>
+        <v>22.886</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.21</v>
+        <v>10.208</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.36</v>
+        <v>38.358</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.88</v>
+        <v>6.884</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.13</v>
+        <v>10.132</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.31</v>
+        <v>11.306</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.88</v>
+        <v>11.876</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.26</v>
+        <v>3.259</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.36</v>
+        <v>14.359</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.679</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.617</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.17</v>
+        <v>147.169</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.33</v>
+        <v>28.328</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.9</v>
+        <v>18.899</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.9</v>
+        <v>9.903</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.65</v>
+        <v>1.651</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.63</v>
+        <v>18.631</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.41</v>
+        <v>7.413</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.702</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.82</v>
+        <v>11.821</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.61</v>
+        <v>34.608</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.21</v>
+        <v>5.213</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.71</v>
+        <v>11.714</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44973.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_292.xlsx
+++ b/DATA_goal/Junction_Flooding_292.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         <v>44973.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.971</v>
+        <v>12.97</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>9.4</v>
@@ -976,198 +976,94 @@
         <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.169</v>
+        <v>28.17</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.886</v>
+        <v>22.89</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.208</v>
+        <v>10.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.358</v>
+        <v>38.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.707</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.884</v>
+        <v>6.88</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.132</v>
+        <v>10.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.306</v>
+        <v>11.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.876</v>
+        <v>11.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.259</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.151</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.359</v>
+        <v>14.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.679</v>
+        <v>8.68</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.617</v>
+        <v>0.62</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.169</v>
+        <v>147.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.328</v>
+        <v>28.33</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.899</v>
+        <v>18.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.903</v>
+        <v>9.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.651</v>
+        <v>1.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.631</v>
+        <v>18.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.276</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.413</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.702</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.821</v>
+        <v>11.82</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.608</v>
+        <v>34.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.213</v>
+        <v>5.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.714</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44973.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.88</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>
